--- a/data/trans_bre/P6906-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P6906-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-21,78; 13,0</t>
+          <t>-22,3; 10,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-24,38; 13,97</t>
+          <t>-24,47; 12,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-28,95; 14,71</t>
+          <t>-27,89; 15,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,44; 26,64</t>
+          <t>-11,25; 24,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-55,46; 60,4</t>
+          <t>-58,83; 41,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-53,63; 49,7</t>
+          <t>-52,53; 48,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-51,01; 41,62</t>
+          <t>-50,92; 43,43</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-24,6; 174,06</t>
+          <t>-28,77; 145,62</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-16,35; 21,62</t>
+          <t>-17,73; 20,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-26,98; 16,51</t>
+          <t>-26,18; 20,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-29,68; 18,43</t>
+          <t>-29,55; 19,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,34; 29,04</t>
+          <t>-5,59; 28,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-59,74; 208,28</t>
+          <t>-61,83; 206,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-74,59; 112,22</t>
+          <t>-73,43; 137,28</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-67,82; 108,45</t>
+          <t>-66,99; 115,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-31,87; 250,45</t>
+          <t>-24,64; 281,31</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-32,98; 13,95</t>
+          <t>-33,45; 15,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,79; 26,33</t>
+          <t>-12,82; 27,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,88; 55,41</t>
+          <t>-14,82; 54,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,96; 30,52</t>
+          <t>-7,89; 33,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 70,53</t>
+          <t>-100,0; 77,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-45,42; 165,06</t>
+          <t>-47,38; 161,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-50,88; 399,77</t>
+          <t>-58,54; 369,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-44,21; 288,99</t>
+          <t>-38,32; 339,29</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 20,74</t>
+          <t>-6,28; 20,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 21,01</t>
+          <t>-5,89; 22,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 24,57</t>
+          <t>-2,28; 23,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,43; 14,5</t>
+          <t>-6,98; 13,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-28,32; 122,58</t>
+          <t>-29,02; 117,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-22,73; 120,12</t>
+          <t>-21,66; 123,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-9,63; 135,46</t>
+          <t>-9,22; 127,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-28,46; 94,74</t>
+          <t>-26,7; 87,89</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,32; 18,13</t>
+          <t>-7,99; 16,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-15,8; 27,44</t>
+          <t>-14,97; 27,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,26; 30,81</t>
+          <t>2,03; 31,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 21,24</t>
+          <t>-5,42; 20,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-49,74; 286,95</t>
+          <t>-49,59; 278,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-44,33; 171,42</t>
+          <t>-43,71; 180,2</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,62; 762,15</t>
+          <t>4,89; 832,29</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-35,76; 1537,02</t>
+          <t>-36,71; 1337,88</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 5,98</t>
+          <t>-7,6; 5,66</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 11,06</t>
+          <t>-3,85; 12,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,82; 16,82</t>
+          <t>0,7; 17,14</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 12,57</t>
+          <t>-3,34; 12,63</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-31,36; 29,97</t>
+          <t>-29,87; 28,61</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-16,32; 45,67</t>
+          <t>-14,34; 54,22</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,56; 82,42</t>
+          <t>1,76; 81,76</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 80,65</t>
+          <t>-13,75; 78,51</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P6906-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P6906-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
